--- a/out/BPI12/results/result_6/prova_6.0_linux.xlsx
+++ b/out/BPI12/results/result_6/prova_6.0_linux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\OneDrive\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AD45F-BA0D-49FB-A0A6-21C1E9BA7AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F1F54-FE24-3C42-9731-9FC277E1A0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3625BA4A-712E-4002-8E62-8B65F786F320}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{3625BA4A-712E-4002-8E62-8B65F786F320}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -630,19 +630,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C0713-5F36-42B7-8D4B-EC8B61565363}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="11.77734375" customWidth="1"/>
+    <col min="24" max="24" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUM(B2:U2)</f>
+        <f t="shared" ref="W2:W21" si="0">SUM(B2:U2)</f>
         <v>1</v>
       </c>
       <c r="X2" s="22">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUM(B3:U3)</f>
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="X3" s="22">
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUM(B4:U4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="X4" s="22">
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUM(B5:U5)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="X5" s="22">
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUM(B6:U6)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="X6" s="22">
@@ -1075,7 +1075,7 @@
         <v>0.91558441558441561</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUM(B7:U7)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="X7" s="22">
@@ -1148,7 +1148,7 @@
         <v>0.5092592592592593</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUM(B8:U8)</f>
+        <f t="shared" si="0"/>
         <v>1169</v>
       </c>
       <c r="X8" s="22">
@@ -1221,7 +1221,7 @@
         <v>0.20872540633019676</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUM(B9:U9)</f>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="X9" s="22">
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUM(B10:U10)</f>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="X10" s="22">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUM(B11:U11)</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="X11" s="22">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUM(B12:U12)</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="X12" s="22">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <f>SUM(B13:U13)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="X13" s="22">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <f>SUM(B14:U14)</f>
+        <f t="shared" si="0"/>
         <v>862</v>
       </c>
       <c r="X14" s="22">
@@ -1659,7 +1659,7 @@
         <v>0.59512761020881677</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <f>SUM(B15:U15)</f>
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="X15" s="22">
@@ -1732,7 +1732,7 @@
         <v>0.90073529411764708</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <f>SUM(B16:U16)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="X16" s="22">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <f>SUM(B17:U17)</f>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="X17" s="22">
@@ -1878,7 +1878,7 @@
         <v>0.89436619718309862</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <f>SUM(B18:U18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="X18" s="22">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <f>SUM(B19:U19)</f>
+        <f t="shared" si="0"/>
         <v>1861</v>
       </c>
       <c r="X19" s="22">
@@ -2024,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <f>SUM(B20:U20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X20" s="22">
@@ -2097,7 +2097,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <f>SUM(B21:U21)</f>
+        <f t="shared" si="0"/>
         <v>492</v>
       </c>
       <c r="X21" s="22">
@@ -2170,88 +2170,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <f>SUM(B2:B21)</f>
+        <f t="shared" ref="B23:U23" si="1">SUM(B2:B21)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>SUM(C2:C21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D23">
-        <f>SUM(D2:D21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUM(E2:E21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUM(F2:F21)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="G23">
-        <f>SUM(G2:G21)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="H23">
-        <f>SUM(H2:H21)</f>
+        <f t="shared" si="1"/>
         <v>1960</v>
       </c>
       <c r="I23">
-        <f>SUM(I2:I21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>SUM(J2:J21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>SUM(K2:K21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUM(L2:L21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>SUM(M2:M21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>SUM(N2:N21)</f>
+        <f t="shared" si="1"/>
         <v>1924</v>
       </c>
       <c r="O23">
-        <f>SUM(O2:O21)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="P23">
-        <f>SUM(P2:P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>SUM(Q2:Q21)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R23">
-        <f>SUM(R2:R21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>SUM(S2:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>SUM(T2:T21)</f>
+        <f t="shared" si="1"/>
         <v>2593</v>
       </c>
       <c r="U23">
-        <f>SUM(U2:U21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W23">
@@ -2259,9 +2259,9 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <f>B2/W2</f>
@@ -2348,9 +2348,9 @@
         <v>0.47712898955728783</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="25" t="e">
         <f>B2/B23</f>
@@ -2437,88 +2437,88 @@
         <v>0.41098174303111079</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="e">
-        <f t="shared" ref="B27:U27" si="0">2*B25*B26/(B25+B26)</f>
+        <f t="shared" ref="B27:U27" si="2">2*B25*B26/(B25+B26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10833333333333334</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.59124320869287317</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25053840631730079</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14516129032258066</v>
       </c>
       <c r="P27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17543859649122806</v>
       </c>
       <c r="R27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6982294072363352E-4</v>
       </c>
       <c r="U27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="26">
@@ -2526,7 +2526,7 @@
         <v>0.44159201456201014</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0.15328882943447789</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
